--- a/Data/NPP/NPP.xlsx
+++ b/Data/NPP/NPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Documents\GitHub\NGA-Data-Processing\Data\NPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Kelly\Documents\GitHub\NGA-Data-Processing\Data\NPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F2562-CD60-4B90-98D5-152377FFA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1759C21B-4D1A-4F36-BBA9-096E6581D77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B33A7D5-1D9B-4C03-9EE7-D5AFB515407E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2B33A7D5-1D9B-4C03-9EE7-D5AFB515407E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="125">
   <si>
     <t>Temp</t>
   </si>
@@ -242,9 +242,6 @@
     <t>PWS2</t>
   </si>
   <si>
-    <t>Fe Comparison</t>
-  </si>
-  <si>
     <t xml:space="preserve">1% Rep A </t>
   </si>
   <si>
@@ -421,8 +418,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -464,10 +461,10 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -787,69 +784,69 @@
   <dimension ref="A1:T544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E522" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E512" sqref="E512"/>
+      <selection pane="bottomRight" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F1" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>4</v>
@@ -858,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>5</v>
@@ -873,9 +870,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -923,9 +920,9 @@
       <c r="R3" s="4"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -960,9 +957,9 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
@@ -997,9 +994,9 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
@@ -1034,9 +1031,9 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -1071,9 +1068,9 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1121,9 +1118,9 @@
       <c r="R8" s="4"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
@@ -1158,9 +1155,9 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
@@ -1195,9 +1192,9 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
@@ -1232,9 +1229,9 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
@@ -1269,9 +1266,9 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1319,9 +1316,9 @@
       <c r="R13" s="4"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -1356,9 +1353,9 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
@@ -1393,9 +1390,9 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
@@ -1430,9 +1427,9 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
@@ -1467,9 +1464,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1517,9 +1514,9 @@
       <c r="R18" s="4"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1553,9 +1550,9 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1589,9 +1586,9 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1625,9 +1622,9 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1661,9 +1658,9 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1711,9 +1708,9 @@
       <c r="R23" s="4"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1747,9 +1744,9 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1783,9 +1780,9 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1819,9 +1816,9 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1855,9 +1852,9 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1905,9 +1902,9 @@
       <c r="R28" s="4"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -1941,9 +1938,9 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
@@ -1977,9 +1974,9 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -2013,9 +2010,9 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -2049,9 +2046,9 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2099,9 +2096,9 @@
       <c r="R33" s="4"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
@@ -2135,9 +2132,9 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -2171,9 +2168,9 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
@@ -2207,9 +2204,9 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
@@ -2243,9 +2240,9 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -2293,9 +2290,9 @@
       <c r="R38" s="4"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="2"/>
@@ -2330,9 +2327,9 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="2"/>
@@ -2367,9 +2364,9 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="2"/>
@@ -2404,9 +2401,9 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
@@ -2441,9 +2438,9 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -2491,9 +2488,9 @@
       <c r="R43" s="4"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -2527,9 +2524,9 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2">
@@ -2563,9 +2560,9 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
@@ -2599,9 +2596,9 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2">
@@ -2635,9 +2632,9 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -2685,9 +2682,9 @@
       <c r="R48" s="4"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
@@ -2722,9 +2719,9 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -2759,9 +2756,9 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
@@ -2796,9 +2793,9 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
@@ -2833,9 +2830,9 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
@@ -2883,9 +2880,9 @@
       <c r="R53" s="4"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
@@ -2919,9 +2916,9 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2">
@@ -2955,9 +2952,9 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2">
@@ -2991,9 +2988,9 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
@@ -3027,9 +3024,9 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -3077,9 +3074,9 @@
       <c r="R58" s="4"/>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
@@ -3114,9 +3111,9 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
@@ -3151,9 +3148,9 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
@@ -3188,9 +3185,9 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
@@ -3225,7 +3222,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -3278,7 +3275,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -3318,7 +3315,7 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -3358,7 +3355,7 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -3398,7 +3395,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -3436,7 +3433,7 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -3490,7 +3487,7 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -3530,7 +3527,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -3570,7 +3567,7 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -3610,7 +3607,7 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -3650,7 +3647,7 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -3688,7 +3685,7 @@
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3742,7 +3739,7 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -3782,7 +3779,7 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -3822,7 +3819,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -3862,7 +3859,7 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -3902,7 +3899,7 @@
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -3940,7 +3937,7 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -3993,7 +3990,7 @@
       <c r="R80" s="3"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -4033,7 +4030,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -4073,7 +4070,7 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -4113,7 +4110,7 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -4151,7 +4148,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>48</v>
       </c>
@@ -4205,7 +4202,7 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>48</v>
       </c>
@@ -4245,7 +4242,7 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>48</v>
       </c>
@@ -4285,7 +4282,7 @@
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -4325,7 +4322,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -4365,7 +4362,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -4403,7 +4400,7 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -4457,7 +4454,7 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -4497,7 +4494,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -4537,7 +4534,7 @@
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>48</v>
       </c>
@@ -4577,7 +4574,7 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -4617,7 +4614,7 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -4655,7 +4652,7 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -4709,7 +4706,7 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -4749,7 +4746,7 @@
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -4789,7 +4786,7 @@
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -4829,7 +4826,7 @@
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>48</v>
       </c>
@@ -4869,7 +4866,7 @@
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>48</v>
       </c>
@@ -4907,7 +4904,7 @@
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -4960,7 +4957,7 @@
       <c r="R103" s="3"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -5000,7 +4997,7 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -5040,7 +5037,7 @@
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -5080,7 +5077,7 @@
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -5118,7 +5115,7 @@
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -5171,7 +5168,7 @@
       <c r="R108" s="3"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>48</v>
       </c>
@@ -5211,7 +5208,7 @@
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -5251,7 +5248,7 @@
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>48</v>
       </c>
@@ -5291,7 +5288,7 @@
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>48</v>
       </c>
@@ -5329,7 +5326,7 @@
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>48</v>
       </c>
@@ -5382,7 +5379,7 @@
       <c r="R113" s="3"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -5422,7 +5419,7 @@
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -5462,7 +5459,7 @@
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -5502,7 +5499,7 @@
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -5540,7 +5537,7 @@
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>48</v>
       </c>
@@ -5593,7 +5590,7 @@
       <c r="R118" s="3"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>48</v>
       </c>
@@ -5633,7 +5630,7 @@
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -5673,7 +5670,7 @@
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>48</v>
       </c>
@@ -5711,7 +5708,7 @@
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>65</v>
       </c>
@@ -5761,7 +5758,7 @@
       <c r="R122" s="4"/>
       <c r="S122" s="2"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -5797,7 +5794,7 @@
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>65</v>
       </c>
@@ -5833,7 +5830,7 @@
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -5869,7 +5866,7 @@
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -5905,7 +5902,7 @@
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>65</v>
       </c>
@@ -5941,7 +5938,7 @@
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -5991,7 +5988,7 @@
       <c r="R128" s="4"/>
       <c r="S128" s="2"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -6026,7 +6023,7 @@
       <c r="Q129" s="2"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>65</v>
       </c>
@@ -6060,7 +6057,7 @@
       <c r="Q130" s="2"/>
       <c r="S130" s="2"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>65</v>
       </c>
@@ -6095,7 +6092,7 @@
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -6130,7 +6127,7 @@
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>65</v>
       </c>
@@ -6165,7 +6162,7 @@
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>65</v>
       </c>
@@ -6215,7 +6212,7 @@
       <c r="R134" s="4"/>
       <c r="S134" s="2"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -6250,7 +6247,7 @@
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>65</v>
       </c>
@@ -6284,7 +6281,7 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>65</v>
       </c>
@@ -6318,7 +6315,7 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>65</v>
       </c>
@@ -6353,7 +6350,7 @@
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>65</v>
       </c>
@@ -6388,7 +6385,7 @@
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>65</v>
       </c>
@@ -6438,7 +6435,7 @@
       <c r="R140" s="4"/>
       <c r="S140" s="2"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -6474,7 +6471,7 @@
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>65</v>
       </c>
@@ -6509,7 +6506,7 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>65</v>
       </c>
@@ -6544,7 +6541,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>65</v>
       </c>
@@ -6580,7 +6577,7 @@
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>65</v>
       </c>
@@ -6616,7 +6613,7 @@
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>65</v>
       </c>
@@ -6666,7 +6663,7 @@
       <c r="R146" s="4"/>
       <c r="S146" s="2"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>65</v>
       </c>
@@ -6701,7 +6698,7 @@
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -6735,7 +6732,7 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>65</v>
       </c>
@@ -6769,7 +6766,7 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>65</v>
       </c>
@@ -6804,7 +6801,7 @@
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>65</v>
       </c>
@@ -6839,7 +6836,7 @@
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>65</v>
       </c>
@@ -6886,7 +6883,7 @@
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>65</v>
       </c>
@@ -6924,7 +6921,7 @@
       <c r="Q153" s="2"/>
       <c r="S153" s="2"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>65</v>
       </c>
@@ -6958,7 +6955,7 @@
       </c>
       <c r="Q154" s="2"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>65</v>
       </c>
@@ -6992,7 +6989,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>65</v>
       </c>
@@ -7027,7 +7024,7 @@
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>65</v>
       </c>
@@ -7062,7 +7059,7 @@
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>65</v>
       </c>
@@ -7112,7 +7109,7 @@
       <c r="R158" s="4"/>
       <c r="S158" s="2"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>65</v>
       </c>
@@ -7148,7 +7145,7 @@
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>65</v>
       </c>
@@ -7184,7 +7181,7 @@
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>65</v>
       </c>
@@ -7220,7 +7217,7 @@
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>65</v>
       </c>
@@ -7256,7 +7253,7 @@
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>65</v>
       </c>
@@ -7292,7 +7289,7 @@
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>65</v>
       </c>
@@ -7342,7 +7339,7 @@
       <c r="R164" s="4"/>
       <c r="S164" s="2"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>65</v>
       </c>
@@ -7378,7 +7375,7 @@
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>65</v>
       </c>
@@ -7414,7 +7411,7 @@
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>65</v>
       </c>
@@ -7449,7 +7446,7 @@
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>65</v>
       </c>
@@ -7484,7 +7481,7 @@
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>65</v>
       </c>
@@ -7519,7 +7516,7 @@
       <c r="R169" s="2"/>
       <c r="S169" s="2"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>66</v>
       </c>
@@ -7569,7 +7566,7 @@
       <c r="R170" s="4"/>
       <c r="S170" s="2"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>66</v>
       </c>
@@ -7602,7 +7599,7 @@
       </c>
       <c r="Q171" s="2"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>66</v>
       </c>
@@ -7635,7 +7632,7 @@
       </c>
       <c r="Q172" s="2"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>66</v>
       </c>
@@ -7668,7 +7665,7 @@
       </c>
       <c r="Q173" s="2"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>66</v>
       </c>
@@ -7701,7 +7698,7 @@
       </c>
       <c r="Q174" s="2"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>66</v>
       </c>
@@ -7734,7 +7731,7 @@
       </c>
       <c r="Q175" s="2"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>66</v>
       </c>
@@ -7754,12 +7751,9 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>66</v>
-      </c>
-      <c r="B177" t="s">
-        <v>68</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="3">
@@ -7796,7 +7790,7 @@
       <c r="R177" s="4"/>
       <c r="S177" s="2"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>66</v>
       </c>
@@ -7830,7 +7824,7 @@
       </c>
       <c r="Q178" s="2"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>66</v>
       </c>
@@ -7863,7 +7857,7 @@
       </c>
       <c r="Q179" s="2"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>66</v>
       </c>
@@ -7896,7 +7890,7 @@
       </c>
       <c r="Q180" s="2"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>66</v>
       </c>
@@ -7925,14 +7919,14 @@
         <v>0.01</v>
       </c>
       <c r="O181" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P181" s="3">
         <v>1.4229702752090276</v>
       </c>
       <c r="Q181" s="2"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>66</v>
       </c>
@@ -7940,7 +7934,7 @@
         <v>53</v>
       </c>
       <c r="C182" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D182">
         <v>13</v>
@@ -7982,7 +7976,7 @@
       <c r="R182" s="4"/>
       <c r="S182" s="2"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>66</v>
       </c>
@@ -8015,7 +8009,7 @@
       </c>
       <c r="Q183" s="2"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>66</v>
       </c>
@@ -8048,7 +8042,7 @@
       </c>
       <c r="Q184" s="2"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>66</v>
       </c>
@@ -8081,7 +8075,7 @@
       </c>
       <c r="Q185" s="2"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>66</v>
       </c>
@@ -8114,7 +8108,7 @@
       </c>
       <c r="Q186" s="2"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>66</v>
       </c>
@@ -8147,7 +8141,7 @@
       </c>
       <c r="Q187" s="2"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>66</v>
       </c>
@@ -8155,7 +8149,7 @@
         <v>55</v>
       </c>
       <c r="C188" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D188">
         <v>17</v>
@@ -8197,7 +8191,7 @@
       <c r="R188" s="4"/>
       <c r="S188" s="2"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>66</v>
       </c>
@@ -8230,7 +8224,7 @@
       </c>
       <c r="Q189" s="2"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>66</v>
       </c>
@@ -8263,7 +8257,7 @@
       </c>
       <c r="Q190" s="2"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>66</v>
       </c>
@@ -8296,7 +8290,7 @@
       </c>
       <c r="Q191" s="2"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>66</v>
       </c>
@@ -8329,7 +8323,7 @@
       </c>
       <c r="Q192" s="2"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>66</v>
       </c>
@@ -8362,7 +8356,7 @@
       </c>
       <c r="Q193" s="2"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>66</v>
       </c>
@@ -8370,7 +8364,7 @@
         <v>57</v>
       </c>
       <c r="C194" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D194">
         <v>21</v>
@@ -8412,7 +8406,7 @@
       <c r="R194" s="4"/>
       <c r="S194" s="2"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>66</v>
       </c>
@@ -8445,7 +8439,7 @@
       </c>
       <c r="Q195" s="2"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>66</v>
       </c>
@@ -8478,7 +8472,7 @@
       </c>
       <c r="Q196" s="2"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>66</v>
       </c>
@@ -8511,7 +8505,7 @@
       </c>
       <c r="Q197" s="2"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>66</v>
       </c>
@@ -8544,7 +8538,7 @@
       </c>
       <c r="Q198" s="2"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>66</v>
       </c>
@@ -8577,7 +8571,7 @@
       </c>
       <c r="Q199" s="2"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>66</v>
       </c>
@@ -8585,7 +8579,7 @@
         <v>59</v>
       </c>
       <c r="C200" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D200">
         <v>25</v>
@@ -8627,7 +8621,7 @@
       <c r="R200" s="4"/>
       <c r="S200" s="2"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>66</v>
       </c>
@@ -8660,7 +8654,7 @@
       </c>
       <c r="Q201" s="2"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>66</v>
       </c>
@@ -8693,7 +8687,7 @@
       </c>
       <c r="Q202" s="2"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>66</v>
       </c>
@@ -8726,7 +8720,7 @@
       </c>
       <c r="Q203" s="2"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>66</v>
       </c>
@@ -8759,7 +8753,7 @@
       </c>
       <c r="Q204" s="2"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>66</v>
       </c>
@@ -8792,7 +8786,7 @@
       </c>
       <c r="Q205" s="2"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>66</v>
       </c>
@@ -8800,7 +8794,7 @@
         <v>61</v>
       </c>
       <c r="C206" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D206">
         <v>29</v>
@@ -8842,7 +8836,7 @@
       <c r="R206" s="4"/>
       <c r="S206" s="2"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>66</v>
       </c>
@@ -8875,7 +8869,7 @@
       </c>
       <c r="Q207" s="2"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>66</v>
       </c>
@@ -8908,7 +8902,7 @@
       </c>
       <c r="Q208" s="2"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>66</v>
       </c>
@@ -8941,7 +8935,7 @@
       </c>
       <c r="Q209" s="2"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>66</v>
       </c>
@@ -8974,7 +8968,7 @@
       </c>
       <c r="Q210" s="2"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>66</v>
       </c>
@@ -9007,7 +9001,7 @@
       </c>
       <c r="Q211" s="2"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>66</v>
       </c>
@@ -9015,7 +9009,7 @@
         <v>63</v>
       </c>
       <c r="C212" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D212">
         <v>33</v>
@@ -9057,7 +9051,7 @@
       <c r="R212" s="4"/>
       <c r="S212" s="2"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>66</v>
       </c>
@@ -9090,7 +9084,7 @@
       </c>
       <c r="Q213" s="2"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>66</v>
       </c>
@@ -9123,7 +9117,7 @@
       </c>
       <c r="Q214" s="2"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>66</v>
       </c>
@@ -9156,7 +9150,7 @@
       </c>
       <c r="Q215" s="2"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>66</v>
       </c>
@@ -9189,7 +9183,7 @@
       </c>
       <c r="Q216" s="2"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>66</v>
       </c>
@@ -9222,15 +9216,15 @@
       </c>
       <c r="Q217" s="2"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>66</v>
       </c>
       <c r="B218" t="s">
+        <v>75</v>
+      </c>
+      <c r="C218" t="s">
         <v>76</v>
-      </c>
-      <c r="C218" t="s">
-        <v>77</v>
       </c>
       <c r="D218">
         <v>35</v>
@@ -9272,7 +9266,7 @@
       <c r="R218" s="4"/>
       <c r="S218" s="2"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>66</v>
       </c>
@@ -9305,7 +9299,7 @@
       </c>
       <c r="Q219" s="2"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>66</v>
       </c>
@@ -9338,7 +9332,7 @@
       </c>
       <c r="Q220" s="2"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>66</v>
       </c>
@@ -9371,7 +9365,7 @@
       </c>
       <c r="Q221" s="2"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>66</v>
       </c>
@@ -9404,7 +9398,7 @@
       </c>
       <c r="Q222" s="2"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>66</v>
       </c>
@@ -9437,15 +9431,15 @@
       </c>
       <c r="Q223" s="2"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>66</v>
       </c>
       <c r="B224" t="s">
+        <v>77</v>
+      </c>
+      <c r="C224" t="s">
         <v>78</v>
-      </c>
-      <c r="C224" t="s">
-        <v>79</v>
       </c>
       <c r="D224">
         <v>41</v>
@@ -9487,7 +9481,7 @@
       <c r="R224" s="4"/>
       <c r="S224" s="2"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>66</v>
       </c>
@@ -9520,7 +9514,7 @@
       </c>
       <c r="Q225" s="2"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>66</v>
       </c>
@@ -9553,7 +9547,7 @@
       </c>
       <c r="Q226" s="2"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>66</v>
       </c>
@@ -9586,7 +9580,7 @@
       </c>
       <c r="Q227" s="2"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>66</v>
       </c>
@@ -9619,7 +9613,7 @@
       </c>
       <c r="Q228" s="2"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>66</v>
       </c>
@@ -9652,15 +9646,15 @@
       </c>
       <c r="Q229" s="2"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>66</v>
       </c>
       <c r="B230" t="s">
+        <v>79</v>
+      </c>
+      <c r="C230" t="s">
         <v>80</v>
-      </c>
-      <c r="C230" t="s">
-        <v>81</v>
       </c>
       <c r="D230">
         <v>52</v>
@@ -9702,7 +9696,7 @@
       <c r="R230" s="4"/>
       <c r="S230" s="2"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>66</v>
       </c>
@@ -9735,7 +9729,7 @@
       </c>
       <c r="Q231" s="2"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>66</v>
       </c>
@@ -9768,7 +9762,7 @@
       </c>
       <c r="Q232" s="2"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>66</v>
       </c>
@@ -9801,7 +9795,7 @@
       </c>
       <c r="Q233" s="2"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>66</v>
       </c>
@@ -9834,7 +9828,7 @@
       </c>
       <c r="Q234" s="2"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>66</v>
       </c>
@@ -9867,12 +9861,12 @@
       </c>
       <c r="Q235" s="2"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>66</v>
       </c>
       <c r="B236" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -9917,7 +9911,7 @@
       <c r="R236" s="4"/>
       <c r="S236" s="2"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>66</v>
       </c>
@@ -9950,7 +9944,7 @@
       </c>
       <c r="Q237" s="2"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>66</v>
       </c>
@@ -9983,7 +9977,7 @@
       </c>
       <c r="Q238" s="2"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>66</v>
       </c>
@@ -10016,7 +10010,7 @@
       </c>
       <c r="Q239" s="2"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>66</v>
       </c>
@@ -10049,7 +10043,7 @@
       </c>
       <c r="Q240" s="2"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>66</v>
       </c>
@@ -10082,15 +10076,15 @@
       </c>
       <c r="Q241" s="2"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>66</v>
       </c>
       <c r="B242" t="s">
+        <v>82</v>
+      </c>
+      <c r="C242" t="s">
         <v>83</v>
-      </c>
-      <c r="C242" t="s">
-        <v>84</v>
       </c>
       <c r="D242">
         <v>59</v>
@@ -10132,7 +10126,7 @@
       <c r="R242" s="4"/>
       <c r="S242" s="2"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>66</v>
       </c>
@@ -10165,7 +10159,7 @@
       </c>
       <c r="Q243" s="2"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>66</v>
       </c>
@@ -10198,7 +10192,7 @@
       </c>
       <c r="Q244" s="2"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>66</v>
       </c>
@@ -10231,7 +10225,7 @@
       </c>
       <c r="Q245" s="2"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>66</v>
       </c>
@@ -10264,7 +10258,7 @@
       </c>
       <c r="Q246" s="2"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>66</v>
       </c>
@@ -10297,15 +10291,15 @@
       </c>
       <c r="Q247" s="2"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>66</v>
       </c>
       <c r="B248" t="s">
+        <v>84</v>
+      </c>
+      <c r="C248" t="s">
         <v>85</v>
-      </c>
-      <c r="C248" t="s">
-        <v>86</v>
       </c>
       <c r="D248">
         <v>71</v>
@@ -10347,7 +10341,7 @@
       <c r="R248" s="4"/>
       <c r="S248" s="2"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>66</v>
       </c>
@@ -10380,7 +10374,7 @@
       </c>
       <c r="Q249" s="2"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>66</v>
       </c>
@@ -10413,7 +10407,7 @@
       </c>
       <c r="Q250" s="2"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>66</v>
       </c>
@@ -10446,7 +10440,7 @@
       </c>
       <c r="Q251" s="2"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>66</v>
       </c>
@@ -10479,7 +10473,7 @@
       </c>
       <c r="Q252" s="2"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>66</v>
       </c>
@@ -10512,9 +10506,9 @@
       </c>
       <c r="Q253" s="2"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B254" t="s">
         <v>49</v>
@@ -10562,9 +10556,9 @@
       <c r="R254" s="4"/>
       <c r="S254" s="2"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="2">
@@ -10596,9 +10590,9 @@
       </c>
       <c r="Q255" s="2"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="2">
@@ -10630,9 +10624,9 @@
       </c>
       <c r="Q256" s="2"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="2">
@@ -10664,9 +10658,9 @@
       </c>
       <c r="Q257" s="2"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="2">
@@ -10698,9 +10692,9 @@
       </c>
       <c r="Q258" s="2"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="2">
@@ -10732,9 +10726,9 @@
       </c>
       <c r="Q259" s="2"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B260" t="s">
         <v>51</v>
@@ -10782,9 +10776,9 @@
       <c r="R260" s="4"/>
       <c r="S260" s="2"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F261" s="3"/>
       <c r="G261" s="2">
@@ -10816,9 +10810,9 @@
       </c>
       <c r="Q261" s="2"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="2">
@@ -10850,9 +10844,9 @@
       </c>
       <c r="Q262" s="2"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F263" s="3"/>
       <c r="G263" s="2">
@@ -10884,9 +10878,9 @@
       </c>
       <c r="Q263" s="2"/>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="2">
@@ -10918,9 +10912,9 @@
       </c>
       <c r="Q264" s="2"/>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="2">
@@ -10952,15 +10946,15 @@
       </c>
       <c r="Q265" s="2"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B266" t="s">
         <v>53</v>
       </c>
       <c r="C266" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D266">
         <v>28</v>
@@ -11002,9 +10996,9 @@
       <c r="R266" s="4"/>
       <c r="S266" s="2"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="2">
@@ -11036,9 +11030,9 @@
       </c>
       <c r="Q267" s="2"/>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F268" s="3"/>
       <c r="G268" s="2">
@@ -11070,9 +11064,9 @@
       </c>
       <c r="Q268" s="2"/>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F269" s="3"/>
       <c r="G269" s="2">
@@ -11104,9 +11098,9 @@
       </c>
       <c r="Q269" s="2"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="2">
@@ -11138,9 +11132,9 @@
       </c>
       <c r="Q270" s="2"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="2">
@@ -11172,9 +11166,9 @@
       </c>
       <c r="Q271" s="2"/>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B272" t="s">
         <v>55</v>
@@ -11222,9 +11216,9 @@
       <c r="R272" s="4"/>
       <c r="S272" s="2"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F273" s="3"/>
       <c r="G273" s="2">
@@ -11256,9 +11250,9 @@
       </c>
       <c r="Q273" s="2"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="2">
@@ -11290,9 +11284,9 @@
       </c>
       <c r="Q274" s="2"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F275" s="3"/>
       <c r="G275" s="2">
@@ -11324,9 +11318,9 @@
       </c>
       <c r="Q275" s="2"/>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F276" s="3"/>
       <c r="G276" s="2">
@@ -11358,9 +11352,9 @@
       </c>
       <c r="Q276" s="2"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="2">
@@ -11392,15 +11386,15 @@
       </c>
       <c r="Q277" s="2"/>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B278" t="s">
         <v>57</v>
       </c>
       <c r="C278" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D278">
         <v>46</v>
@@ -11442,9 +11436,9 @@
       <c r="R278" s="4"/>
       <c r="S278" s="2"/>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F279" s="3"/>
       <c r="G279" s="2">
@@ -11476,9 +11470,9 @@
       </c>
       <c r="Q279" s="2"/>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F280" s="3"/>
       <c r="G280" s="2">
@@ -11510,9 +11504,9 @@
       </c>
       <c r="Q280" s="2"/>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="2">
@@ -11544,9 +11538,9 @@
       </c>
       <c r="Q281" s="2"/>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="2">
@@ -11578,9 +11572,9 @@
       </c>
       <c r="Q282" s="2"/>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="2">
@@ -11612,15 +11606,15 @@
       </c>
       <c r="Q283" s="2"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B284" t="s">
         <v>59</v>
       </c>
       <c r="C284" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D284">
         <v>57</v>
@@ -11662,9 +11656,9 @@
       <c r="R284" s="4"/>
       <c r="S284" s="2"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="2">
@@ -11696,9 +11690,9 @@
       </c>
       <c r="Q285" s="2"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="2">
@@ -11730,9 +11724,9 @@
       </c>
       <c r="Q286" s="2"/>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="2">
@@ -11764,9 +11758,9 @@
       </c>
       <c r="Q287" s="2"/>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="2">
@@ -11798,9 +11792,9 @@
       </c>
       <c r="Q288" s="2"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="2">
@@ -11832,15 +11826,15 @@
       </c>
       <c r="Q289" s="2"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B290" t="s">
         <v>61</v>
       </c>
       <c r="C290" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D290">
         <v>65</v>
@@ -11882,9 +11876,9 @@
       <c r="R290" s="4"/>
       <c r="S290" s="2"/>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="2">
@@ -11916,9 +11910,9 @@
       </c>
       <c r="Q291" s="2"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="2">
@@ -11950,9 +11944,9 @@
       </c>
       <c r="Q292" s="2"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F293" s="3"/>
       <c r="G293" s="2">
@@ -11984,9 +11978,9 @@
       </c>
       <c r="Q293" s="2"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="2">
@@ -12018,9 +12012,9 @@
       </c>
       <c r="Q294" s="2"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F295" s="3"/>
       <c r="G295" s="2">
@@ -12052,9 +12046,9 @@
       </c>
       <c r="Q295" s="2"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B296" t="s">
         <v>49</v>
@@ -12102,9 +12096,9 @@
       <c r="R296" s="4"/>
       <c r="S296" s="2"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="2">
@@ -12136,9 +12130,9 @@
       </c>
       <c r="Q297" s="2"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="2">
@@ -12170,9 +12164,9 @@
       </c>
       <c r="Q298" s="2"/>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="2">
@@ -12204,9 +12198,9 @@
       </c>
       <c r="Q299" s="2"/>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F300" s="3"/>
       <c r="G300" s="2">
@@ -12238,9 +12232,9 @@
       </c>
       <c r="Q300" s="2"/>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="2">
@@ -12272,9 +12266,9 @@
       </c>
       <c r="Q301" s="2"/>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B302" t="s">
         <v>51</v>
@@ -12322,9 +12316,9 @@
       <c r="R302" s="4"/>
       <c r="S302" s="2"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F303" s="3"/>
       <c r="G303" s="2">
@@ -12356,9 +12350,9 @@
       </c>
       <c r="Q303" s="2"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="2">
@@ -12390,9 +12384,9 @@
       </c>
       <c r="Q304" s="2"/>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="2">
@@ -12424,9 +12418,9 @@
       </c>
       <c r="Q305" s="2"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="2">
@@ -12458,9 +12452,9 @@
       </c>
       <c r="Q306" s="2"/>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="2">
@@ -12492,9 +12486,9 @@
       </c>
       <c r="Q307" s="2"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B308" t="s">
         <v>53</v>
@@ -12542,9 +12536,9 @@
       <c r="R308" s="4"/>
       <c r="S308" s="2"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="2">
@@ -12576,9 +12570,9 @@
       </c>
       <c r="Q309" s="2"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F310" s="3"/>
       <c r="G310" s="2">
@@ -12610,9 +12604,9 @@
       </c>
       <c r="Q310" s="2"/>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="2">
@@ -12644,9 +12638,9 @@
       </c>
       <c r="Q311" s="2"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F312" s="3"/>
       <c r="G312" s="2">
@@ -12678,9 +12672,9 @@
       </c>
       <c r="Q312" s="2"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="2">
@@ -12712,9 +12706,9 @@
       </c>
       <c r="Q313" s="2"/>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B314" t="s">
         <v>55</v>
@@ -12762,9 +12756,9 @@
       <c r="R314" s="4"/>
       <c r="S314" s="2"/>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F315" s="3"/>
       <c r="G315" s="2">
@@ -12796,9 +12790,9 @@
       </c>
       <c r="Q315" s="2"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F316" s="3"/>
       <c r="G316" s="2">
@@ -12830,9 +12824,9 @@
       </c>
       <c r="Q316" s="2"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F317" s="3"/>
       <c r="G317" s="2">
@@ -12864,9 +12858,9 @@
       </c>
       <c r="Q317" s="2"/>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="2">
@@ -12898,9 +12892,9 @@
       </c>
       <c r="Q318" s="2"/>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F319" s="3"/>
       <c r="G319" s="2">
@@ -12932,15 +12926,15 @@
       </c>
       <c r="Q319" s="2"/>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B320" t="s">
         <v>57</v>
       </c>
       <c r="C320" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D320">
         <v>26</v>
@@ -12982,9 +12976,9 @@
       <c r="R320" s="4"/>
       <c r="S320" s="2"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F321" s="3"/>
       <c r="G321" s="2">
@@ -13016,9 +13010,9 @@
       </c>
       <c r="Q321" s="2"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F322" s="3"/>
       <c r="G322" s="2">
@@ -13050,9 +13044,9 @@
       </c>
       <c r="Q322" s="2"/>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F323" s="3"/>
       <c r="G323" s="2">
@@ -13084,9 +13078,9 @@
       </c>
       <c r="Q323" s="2"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F324" s="3"/>
       <c r="G324" s="2">
@@ -13118,9 +13112,9 @@
       </c>
       <c r="Q324" s="2"/>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F325" s="3"/>
       <c r="G325" s="2">
@@ -13152,15 +13146,15 @@
       </c>
       <c r="Q325" s="2"/>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B326" t="s">
         <v>59</v>
       </c>
       <c r="C326" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D326">
         <v>36</v>
@@ -13202,9 +13196,9 @@
       <c r="R326" s="4"/>
       <c r="S326" s="2"/>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F327" s="3"/>
       <c r="G327" s="2">
@@ -13236,9 +13230,9 @@
       </c>
       <c r="Q327" s="2"/>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="2">
@@ -13270,9 +13264,9 @@
       </c>
       <c r="Q328" s="2"/>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F329" s="3"/>
       <c r="G329" s="2">
@@ -13304,9 +13298,9 @@
       </c>
       <c r="Q329" s="2"/>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="2">
@@ -13338,9 +13332,9 @@
       </c>
       <c r="Q330" s="2"/>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="2">
@@ -13372,15 +13366,15 @@
       </c>
       <c r="Q331" s="2"/>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B332" t="s">
         <v>61</v>
       </c>
       <c r="C332" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D332">
         <v>44</v>
@@ -13422,9 +13416,9 @@
       <c r="R332" s="4"/>
       <c r="S332" s="2"/>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F333" s="3"/>
       <c r="G333" s="2">
@@ -13456,9 +13450,9 @@
       </c>
       <c r="Q333" s="2"/>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F334" s="3"/>
       <c r="G334" s="2">
@@ -13490,9 +13484,9 @@
       </c>
       <c r="Q334" s="2"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F335" s="3"/>
       <c r="G335" s="2">
@@ -13524,9 +13518,9 @@
       </c>
       <c r="Q335" s="2"/>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F336" s="3"/>
       <c r="G336" s="2">
@@ -13558,9 +13552,9 @@
       </c>
       <c r="Q336" s="2"/>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F337" s="3"/>
       <c r="G337" s="2">
@@ -13592,15 +13586,15 @@
       </c>
       <c r="Q337" s="2"/>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B338" t="s">
         <v>63</v>
       </c>
       <c r="C338" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D338">
         <v>48</v>
@@ -13642,9 +13636,9 @@
       <c r="R338" s="4"/>
       <c r="S338" s="2"/>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F339" s="3"/>
       <c r="G339" s="2">
@@ -13676,9 +13670,9 @@
       </c>
       <c r="Q339" s="2"/>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F340" s="3"/>
       <c r="G340" s="2">
@@ -13710,9 +13704,9 @@
       </c>
       <c r="Q340" s="2"/>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F341" s="3"/>
       <c r="G341" s="2">
@@ -13744,15 +13738,15 @@
       </c>
       <c r="Q341" s="2"/>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B342" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C342" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D342">
         <v>50</v>
@@ -13794,9 +13788,9 @@
       <c r="R342" s="4"/>
       <c r="S342" s="2"/>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F343" s="3"/>
       <c r="G343" s="2">
@@ -13828,9 +13822,9 @@
       </c>
       <c r="Q343" s="2"/>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F344" s="3"/>
       <c r="G344" s="2">
@@ -13862,9 +13856,9 @@
       </c>
       <c r="Q344" s="2"/>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F345" s="3"/>
       <c r="G345" s="2">
@@ -13896,9 +13890,9 @@
       </c>
       <c r="Q345" s="2"/>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F346" s="3"/>
       <c r="G346" s="2">
@@ -13930,9 +13924,9 @@
       </c>
       <c r="Q346" s="2"/>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F347" s="3"/>
       <c r="G347" s="2">
@@ -13964,12 +13958,12 @@
       </c>
       <c r="Q347" s="2"/>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B348" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C348" t="s">
         <v>52</v>
@@ -14014,9 +14008,9 @@
       <c r="R348" s="4"/>
       <c r="S348" s="2"/>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F349" s="3"/>
       <c r="G349" s="2">
@@ -14048,9 +14042,9 @@
       </c>
       <c r="Q349" s="2"/>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F350" s="3"/>
       <c r="G350" s="2">
@@ -14082,9 +14076,9 @@
       </c>
       <c r="Q350" s="2"/>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="2">
@@ -14116,9 +14110,9 @@
       </c>
       <c r="Q351" s="2"/>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="2">
@@ -14150,9 +14144,9 @@
       </c>
       <c r="Q352" s="2"/>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F353" s="3"/>
       <c r="G353" s="2">
@@ -14184,9 +14178,9 @@
       </c>
       <c r="Q353" s="2"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B354" t="s">
         <v>49</v>
@@ -14234,9 +14228,9 @@
       <c r="R354" s="4"/>
       <c r="S354" s="2"/>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F355" s="3"/>
       <c r="G355" s="2">
@@ -14268,9 +14262,9 @@
       </c>
       <c r="Q355" s="2"/>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F356" s="3"/>
       <c r="G356" s="2">
@@ -14302,9 +14296,9 @@
       </c>
       <c r="Q356" s="2"/>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F357" s="3"/>
       <c r="G357" s="2">
@@ -14336,9 +14330,9 @@
       </c>
       <c r="Q357" s="2"/>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F358" s="3"/>
       <c r="G358" s="2">
@@ -14370,9 +14364,9 @@
       </c>
       <c r="Q358" s="2"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F359" s="3"/>
       <c r="G359" s="2">
@@ -14404,15 +14398,15 @@
       </c>
       <c r="Q359" s="2"/>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B360" t="s">
         <v>51</v>
       </c>
       <c r="C360" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D360">
         <v>9</v>
@@ -14454,9 +14448,9 @@
       <c r="R360" s="4"/>
       <c r="S360" s="2"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="2">
@@ -14488,9 +14482,9 @@
       </c>
       <c r="Q361" s="2"/>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="2">
@@ -14522,9 +14516,9 @@
       </c>
       <c r="Q362" s="2"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="2">
@@ -14556,9 +14550,9 @@
       </c>
       <c r="Q363" s="2"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F364" s="3"/>
       <c r="G364" s="2">
@@ -14590,9 +14584,9 @@
       </c>
       <c r="Q364" s="2"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F365" s="3"/>
       <c r="G365" s="2">
@@ -14624,15 +14618,15 @@
       </c>
       <c r="Q365" s="2"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B366" t="s">
         <v>53</v>
       </c>
       <c r="C366" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D366">
         <v>14</v>
@@ -14674,9 +14668,9 @@
       <c r="R366" s="4"/>
       <c r="S366" s="2"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F367" s="3"/>
       <c r="G367" s="2">
@@ -14708,9 +14702,9 @@
       </c>
       <c r="Q367" s="2"/>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F368" s="3"/>
       <c r="G368" s="2">
@@ -14742,9 +14736,9 @@
       </c>
       <c r="Q368" s="2"/>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F369" s="3"/>
       <c r="G369" s="2">
@@ -14776,9 +14770,9 @@
       </c>
       <c r="Q369" s="2"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="2">
@@ -14810,9 +14804,9 @@
       </c>
       <c r="Q370" s="2"/>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F371" s="3"/>
       <c r="G371" s="2">
@@ -14844,15 +14838,15 @@
       </c>
       <c r="Q371" s="2"/>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B372" t="s">
         <v>55</v>
       </c>
       <c r="C372" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D372">
         <v>18</v>
@@ -14894,9 +14888,9 @@
       <c r="R372" s="4"/>
       <c r="S372" s="2"/>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F373" s="3"/>
       <c r="G373" s="2">
@@ -14928,9 +14922,9 @@
       </c>
       <c r="Q373" s="2"/>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F374" s="3"/>
       <c r="G374" s="2">
@@ -14962,9 +14956,9 @@
       </c>
       <c r="Q374" s="2"/>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F375" s="3"/>
       <c r="G375" s="2">
@@ -14996,9 +14990,9 @@
       </c>
       <c r="Q375" s="2"/>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F376" s="3"/>
       <c r="G376" s="2">
@@ -15030,9 +15024,9 @@
       </c>
       <c r="Q376" s="2"/>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F377" s="3"/>
       <c r="G377" s="2">
@@ -15064,9 +15058,9 @@
       </c>
       <c r="Q377" s="2"/>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B378" t="s">
         <v>57</v>
@@ -15114,9 +15108,9 @@
       <c r="R378" s="4"/>
       <c r="S378" s="2"/>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F379" s="3"/>
       <c r="G379" s="2">
@@ -15148,9 +15142,9 @@
       </c>
       <c r="Q379" s="2"/>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F380" s="3"/>
       <c r="G380" s="2">
@@ -15182,9 +15176,9 @@
       </c>
       <c r="Q380" s="2"/>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F381" s="3"/>
       <c r="G381" s="2">
@@ -15216,9 +15210,9 @@
       </c>
       <c r="Q381" s="2"/>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F382" s="3"/>
       <c r="G382" s="2">
@@ -15250,9 +15244,9 @@
       </c>
       <c r="Q382" s="2"/>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="2">
@@ -15284,15 +15278,15 @@
       </c>
       <c r="Q383" s="2"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B384" t="s">
         <v>49</v>
       </c>
       <c r="C384" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D384">
         <v>7</v>
@@ -15334,9 +15328,9 @@
       <c r="R384" s="4"/>
       <c r="S384" s="2"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="2">
@@ -15368,9 +15362,9 @@
       </c>
       <c r="Q385" s="2"/>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="2">
@@ -15402,9 +15396,9 @@
       </c>
       <c r="Q386" s="2"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="2">
@@ -15436,9 +15430,9 @@
       </c>
       <c r="Q387" s="2"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="2">
@@ -15470,9 +15464,9 @@
       </c>
       <c r="Q388" s="2"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="2">
@@ -15504,15 +15498,15 @@
       </c>
       <c r="Q389" s="2"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B390" t="s">
         <v>51</v>
       </c>
       <c r="C390" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D390">
         <v>13</v>
@@ -15554,9 +15548,9 @@
       <c r="R390" s="4"/>
       <c r="S390" s="2"/>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F391" s="3"/>
       <c r="G391" s="2">
@@ -15588,9 +15582,9 @@
       </c>
       <c r="Q391" s="2"/>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F392" s="3"/>
       <c r="G392" s="2">
@@ -15622,9 +15616,9 @@
       </c>
       <c r="Q392" s="2"/>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F393" s="3"/>
       <c r="G393" s="2">
@@ -15656,9 +15650,9 @@
       </c>
       <c r="Q393" s="2"/>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F394" s="3"/>
       <c r="G394" s="2">
@@ -15690,9 +15684,9 @@
       </c>
       <c r="Q394" s="2"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F395" s="3"/>
       <c r="G395" s="2">
@@ -15724,15 +15718,15 @@
       </c>
       <c r="Q395" s="2"/>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B396" t="s">
         <v>53</v>
       </c>
       <c r="C396" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D396">
         <v>15</v>
@@ -15774,9 +15768,9 @@
       <c r="R396" s="4"/>
       <c r="S396" s="2"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F397" s="3"/>
       <c r="G397" s="2">
@@ -15808,9 +15802,9 @@
       </c>
       <c r="Q397" s="2"/>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F398" s="3"/>
       <c r="G398" s="2">
@@ -15842,9 +15836,9 @@
       </c>
       <c r="Q398" s="2"/>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F399" s="3"/>
       <c r="G399" s="2">
@@ -15876,9 +15870,9 @@
       </c>
       <c r="Q399" s="2"/>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F400" s="3"/>
       <c r="G400" s="2">
@@ -15910,9 +15904,9 @@
       </c>
       <c r="Q400" s="2"/>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F401" s="3"/>
       <c r="G401" s="2">
@@ -15944,15 +15938,15 @@
       </c>
       <c r="Q401" s="2"/>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B402" t="s">
         <v>55</v>
       </c>
       <c r="C402" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D402">
         <v>20</v>
@@ -15994,9 +15988,9 @@
       <c r="R402" s="4"/>
       <c r="S402" s="2"/>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F403" s="3"/>
       <c r="G403" s="2">
@@ -16028,9 +16022,9 @@
       </c>
       <c r="Q403" s="2"/>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F404" s="3"/>
       <c r="G404" s="2">
@@ -16062,9 +16056,9 @@
       </c>
       <c r="Q404" s="2"/>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F405" s="3"/>
       <c r="G405" s="2">
@@ -16096,9 +16090,9 @@
       </c>
       <c r="Q405" s="2"/>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F406" s="3"/>
       <c r="G406" s="2">
@@ -16130,9 +16124,9 @@
       </c>
       <c r="Q406" s="2"/>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F407" s="3"/>
       <c r="G407" s="2">
@@ -16164,9 +16158,9 @@
       </c>
       <c r="Q407" s="2"/>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B408" t="s">
         <v>57</v>
@@ -16214,9 +16208,9 @@
       <c r="R408" s="4"/>
       <c r="S408" s="2"/>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F409" s="3"/>
       <c r="G409" s="2">
@@ -16248,9 +16242,9 @@
       </c>
       <c r="Q409" s="2"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F410" s="3"/>
       <c r="G410" s="2">
@@ -16282,9 +16276,9 @@
       </c>
       <c r="Q410" s="2"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F411" s="3"/>
       <c r="G411" s="2">
@@ -16316,9 +16310,9 @@
       </c>
       <c r="Q411" s="2"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F412" s="3"/>
       <c r="G412" s="2">
@@ -16350,9 +16344,9 @@
       </c>
       <c r="Q412" s="2"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F413" s="3"/>
       <c r="G413" s="2">
@@ -16384,12 +16378,12 @@
       </c>
       <c r="Q413" s="2"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
+        <v>94</v>
+      </c>
+      <c r="B414" t="s">
         <v>95</v>
-      </c>
-      <c r="B414" t="s">
-        <v>96</v>
       </c>
       <c r="C414" t="s">
         <v>67</v>
@@ -16434,9 +16428,9 @@
       <c r="R414" s="4"/>
       <c r="S414" s="2"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E415" s="1"/>
       <c r="F415" s="3"/>
@@ -16469,9 +16463,9 @@
       </c>
       <c r="Q415" s="2"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E416" s="1"/>
       <c r="F416" s="3"/>
@@ -16504,9 +16498,9 @@
       </c>
       <c r="Q416" s="2"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E417" s="1"/>
       <c r="F417" s="3"/>
@@ -16539,9 +16533,9 @@
       </c>
       <c r="Q417" s="2"/>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E418" s="1"/>
       <c r="F418" s="3"/>
@@ -16574,9 +16568,9 @@
       </c>
       <c r="Q418" s="2"/>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="3"/>
@@ -16609,12 +16603,12 @@
       </c>
       <c r="Q419" s="2"/>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B420" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C420" t="s">
         <v>7</v>
@@ -16659,9 +16653,9 @@
       <c r="R420" s="4"/>
       <c r="S420" s="2"/>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="3"/>
@@ -16694,9 +16688,9 @@
       </c>
       <c r="Q421" s="2"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E422" s="1"/>
       <c r="F422" s="3"/>
@@ -16729,9 +16723,9 @@
       </c>
       <c r="Q422" s="2"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E423" s="1"/>
       <c r="F423" s="3"/>
@@ -16764,9 +16758,9 @@
       </c>
       <c r="Q423" s="2"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="3"/>
@@ -16799,9 +16793,9 @@
       </c>
       <c r="Q424" s="2"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E425" s="1"/>
       <c r="F425" s="3"/>
@@ -16834,15 +16828,15 @@
       </c>
       <c r="Q425" s="2"/>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B426" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C426" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D426">
         <v>55</v>
@@ -16884,9 +16878,9 @@
       <c r="R426" s="4"/>
       <c r="S426" s="2"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E427" s="1"/>
       <c r="F427" s="3"/>
@@ -16919,9 +16913,9 @@
       </c>
       <c r="Q427" s="2"/>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E428" s="1"/>
       <c r="F428" s="3"/>
@@ -16954,9 +16948,9 @@
       </c>
       <c r="Q428" s="2"/>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E429" s="1"/>
       <c r="F429" s="3"/>
@@ -16989,9 +16983,9 @@
       </c>
       <c r="Q429" s="2"/>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E430" s="1"/>
       <c r="F430" s="3"/>
@@ -17024,9 +17018,9 @@
       </c>
       <c r="Q430" s="2"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E431" s="1"/>
       <c r="F431" s="3"/>
@@ -17059,15 +17053,15 @@
       </c>
       <c r="Q431" s="2"/>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B432" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C432" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D432">
         <v>61</v>
@@ -17109,9 +17103,9 @@
       <c r="R432" s="4"/>
       <c r="S432" s="2"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E433" s="1"/>
       <c r="F433" s="3"/>
@@ -17144,9 +17138,9 @@
       </c>
       <c r="Q433" s="2"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E434" s="1"/>
       <c r="F434" s="3"/>
@@ -17179,9 +17173,9 @@
       </c>
       <c r="Q434" s="2"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E435" s="1"/>
       <c r="F435" s="3"/>
@@ -17214,9 +17208,9 @@
       </c>
       <c r="Q435" s="2"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E436" s="1"/>
       <c r="F436" s="3"/>
@@ -17249,9 +17243,9 @@
       </c>
       <c r="Q436" s="2"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E437" s="1"/>
       <c r="F437" s="3"/>
@@ -17284,15 +17278,15 @@
       </c>
       <c r="Q437" s="2"/>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B438" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C438" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D438">
         <v>69</v>
@@ -17334,9 +17328,9 @@
       <c r="R438" s="4"/>
       <c r="S438" s="2"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F439" s="3"/>
       <c r="G439" s="2">
@@ -17368,9 +17362,9 @@
       </c>
       <c r="Q439" s="2"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F440" s="3"/>
       <c r="G440" s="2">
@@ -17402,9 +17396,9 @@
       </c>
       <c r="Q440" s="2"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F441" s="3"/>
       <c r="G441" s="2">
@@ -17436,9 +17430,9 @@
       </c>
       <c r="Q441" s="2"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F442" s="3"/>
       <c r="G442" s="2">
@@ -17470,9 +17464,9 @@
       </c>
       <c r="Q442" s="2"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G443" s="2">
         <v>30.744871473609631</v>
@@ -17503,15 +17497,15 @@
       </c>
       <c r="Q443" s="2"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
+        <v>100</v>
+      </c>
+      <c r="B444" t="s">
         <v>101</v>
       </c>
-      <c r="B444" t="s">
-        <v>102</v>
-      </c>
       <c r="C444" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D444">
         <v>4</v>
@@ -17553,9 +17547,9 @@
       <c r="R444" s="4"/>
       <c r="S444" s="2"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F445" s="3"/>
       <c r="G445" s="2">
@@ -17587,9 +17581,9 @@
       </c>
       <c r="Q445" s="2"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F446" s="3"/>
       <c r="G446" s="2">
@@ -17621,9 +17615,9 @@
       </c>
       <c r="Q446" s="2"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F447" s="3"/>
       <c r="G447" s="2">
@@ -17655,9 +17649,9 @@
       </c>
       <c r="Q447" s="2"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F448" s="3"/>
       <c r="G448" s="2">
@@ -17689,9 +17683,9 @@
       </c>
       <c r="Q448" s="2"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F449" s="3"/>
       <c r="G449" s="2">
@@ -17723,15 +17717,15 @@
       </c>
       <c r="Q449" s="2"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B450" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C450" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D450">
         <v>10</v>
@@ -17773,9 +17767,9 @@
       <c r="R450" s="4"/>
       <c r="S450" s="2"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F451" s="3"/>
       <c r="G451" s="2">
@@ -17807,9 +17801,9 @@
       </c>
       <c r="Q451" s="2"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F452" s="3"/>
       <c r="G452" s="2">
@@ -17841,9 +17835,9 @@
       </c>
       <c r="Q452" s="2"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F453" s="3"/>
       <c r="G453" s="2">
@@ -17875,9 +17869,9 @@
       </c>
       <c r="Q453" s="2"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F454" s="3"/>
       <c r="G454" s="2">
@@ -17909,9 +17903,9 @@
       </c>
       <c r="Q454" s="2"/>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F455" s="3"/>
       <c r="G455" s="2">
@@ -17943,15 +17937,15 @@
       </c>
       <c r="Q455" s="2"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B456" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C456" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D456">
         <v>13</v>
@@ -17993,9 +17987,9 @@
       <c r="R456" s="4"/>
       <c r="S456" s="2"/>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F457" s="3"/>
       <c r="G457" s="2">
@@ -18027,9 +18021,9 @@
       </c>
       <c r="Q457" s="2"/>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F458" s="3"/>
       <c r="G458" s="2">
@@ -18061,9 +18055,9 @@
       </c>
       <c r="Q458" s="2"/>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F459" s="3"/>
       <c r="G459" s="2">
@@ -18095,9 +18089,9 @@
       </c>
       <c r="Q459" s="2"/>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F460" s="3"/>
       <c r="G460" s="2">
@@ -18129,9 +18123,9 @@
       </c>
       <c r="Q460" s="2"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F461" s="3"/>
       <c r="G461" s="2">
@@ -18163,12 +18157,12 @@
       </c>
       <c r="Q461" s="2"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B462" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C462" t="s">
         <v>7</v>
@@ -18213,9 +18207,9 @@
       <c r="R462" s="4"/>
       <c r="S462" s="2"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F463" s="3"/>
       <c r="G463" s="2">
@@ -18247,9 +18241,9 @@
       </c>
       <c r="Q463" s="2"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F464" s="3"/>
       <c r="G464" s="2">
@@ -18281,9 +18275,9 @@
       </c>
       <c r="Q464" s="2"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F465" s="3"/>
       <c r="G465" s="2">
@@ -18315,9 +18309,9 @@
       </c>
       <c r="Q465" s="2"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F466" s="3"/>
       <c r="G466" s="2">
@@ -18349,9 +18343,9 @@
       </c>
       <c r="Q466" s="2"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F467" s="3"/>
       <c r="G467" s="2">
@@ -18383,15 +18377,15 @@
       </c>
       <c r="Q467" s="2"/>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B468" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C468" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D468">
         <v>26</v>
@@ -18433,9 +18427,9 @@
       <c r="R468" s="4"/>
       <c r="S468" s="2"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F469" s="3"/>
       <c r="G469" s="2">
@@ -18467,9 +18461,9 @@
       </c>
       <c r="Q469" s="2"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F470" s="3"/>
       <c r="G470" s="2">
@@ -18501,9 +18495,9 @@
       </c>
       <c r="Q470" s="2"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F471" s="3"/>
       <c r="G471" s="2">
@@ -18535,9 +18529,9 @@
       </c>
       <c r="Q471" s="2"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F472" s="3"/>
       <c r="G472" s="2">
@@ -18569,9 +18563,9 @@
       </c>
       <c r="Q472" s="2"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F473" s="3"/>
       <c r="G473" s="2">
@@ -18603,15 +18597,15 @@
       </c>
       <c r="Q473" s="2"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B474" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C474" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D474">
         <v>32</v>
@@ -18653,9 +18647,9 @@
       <c r="R474" s="4"/>
       <c r="S474" s="2"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E475" s="1"/>
       <c r="F475" s="3"/>
@@ -18688,9 +18682,9 @@
       </c>
       <c r="Q475" s="2"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E476" s="1"/>
       <c r="F476" s="3"/>
@@ -18723,9 +18717,9 @@
       </c>
       <c r="Q476" s="2"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E477" s="1"/>
       <c r="F477" s="3"/>
@@ -18758,9 +18752,9 @@
       </c>
       <c r="Q477" s="2"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E478" s="1"/>
       <c r="F478" s="3"/>
@@ -18793,9 +18787,9 @@
       </c>
       <c r="Q478" s="2"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E479" s="1"/>
       <c r="F479" s="3"/>
@@ -18828,15 +18822,15 @@
       </c>
       <c r="Q479" s="2"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B480" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C480" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D480">
         <v>39</v>
@@ -18878,9 +18872,9 @@
       <c r="R480" s="4"/>
       <c r="S480" s="2"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E481" s="1"/>
       <c r="F481" s="3"/>
@@ -18913,9 +18907,9 @@
       </c>
       <c r="Q481" s="2"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E482" s="1"/>
       <c r="F482" s="3"/>
@@ -18948,9 +18942,9 @@
       </c>
       <c r="Q482" s="2"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E483" s="1"/>
       <c r="F483" s="3"/>
@@ -18983,9 +18977,9 @@
       </c>
       <c r="Q483" s="2"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E484" s="1"/>
       <c r="F484" s="3"/>
@@ -19018,9 +19012,9 @@
       </c>
       <c r="Q484" s="2"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E485" s="1"/>
       <c r="F485" s="3"/>
@@ -19053,12 +19047,12 @@
       </c>
       <c r="Q485" s="2"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B486" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C486" t="s">
         <v>50</v>
@@ -19103,9 +19097,9 @@
       <c r="R486" s="4"/>
       <c r="S486" s="2"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E487" s="1"/>
       <c r="F487" s="3"/>
@@ -19138,9 +19132,9 @@
       </c>
       <c r="Q487" s="2"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E488" s="1"/>
       <c r="F488" s="3"/>
@@ -19173,9 +19167,9 @@
       </c>
       <c r="Q488" s="2"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E489" s="1"/>
       <c r="F489" s="3"/>
@@ -19208,9 +19202,9 @@
       </c>
       <c r="Q489" s="2"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E490" s="1"/>
       <c r="F490" s="3"/>
@@ -19243,9 +19237,9 @@
       </c>
       <c r="Q490" s="2"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E491" s="1"/>
       <c r="F491" s="3"/>
@@ -19278,15 +19272,15 @@
       </c>
       <c r="Q491" s="2"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B492" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C492" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D492">
         <v>57</v>
@@ -19328,9 +19322,9 @@
       <c r="R492" s="4"/>
       <c r="S492" s="2"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E493" s="1"/>
       <c r="F493" s="3"/>
@@ -19363,9 +19357,9 @@
       </c>
       <c r="Q493" s="2"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E494" s="1"/>
       <c r="F494" s="3"/>
@@ -19398,9 +19392,9 @@
       </c>
       <c r="Q494" s="2"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E495" s="1"/>
       <c r="F495" s="3"/>
@@ -19433,9 +19427,9 @@
       </c>
       <c r="Q495" s="2"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E496" s="1"/>
       <c r="F496" s="3"/>
@@ -19468,9 +19462,9 @@
       </c>
       <c r="Q496" s="2"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E497" s="1"/>
       <c r="F497" s="3"/>
@@ -19503,12 +19497,12 @@
       </c>
       <c r="Q497" s="2"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B498" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C498" t="s">
         <v>67</v>
@@ -19553,9 +19547,9 @@
       <c r="R498" s="4"/>
       <c r="S498" s="2"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F499" s="3"/>
       <c r="G499" s="2">
@@ -19587,9 +19581,9 @@
       </c>
       <c r="Q499" s="2"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F500" s="3"/>
       <c r="G500" s="2">
@@ -19621,9 +19615,9 @@
       </c>
       <c r="Q500" s="2"/>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F501" s="3"/>
       <c r="G501" s="2">
@@ -19655,9 +19649,9 @@
       </c>
       <c r="Q501" s="2"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F502" s="3"/>
       <c r="G502" s="2">
@@ -19689,9 +19683,9 @@
       </c>
       <c r="Q502" s="2"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F503" s="3"/>
       <c r="G503" s="2">
@@ -19723,15 +19717,15 @@
       </c>
       <c r="Q503" s="2"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B504" t="s">
         <v>49</v>
       </c>
       <c r="C504" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D504">
         <v>2</v>
@@ -19773,9 +19767,9 @@
       <c r="R504" s="4"/>
       <c r="S504" s="2"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F505" s="3"/>
       <c r="G505" s="2">
@@ -19807,9 +19801,9 @@
       </c>
       <c r="Q505" s="2"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F506" s="3"/>
       <c r="G506" s="2">
@@ -19841,9 +19835,9 @@
       </c>
       <c r="Q506" s="2"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F507" s="3"/>
       <c r="G507" s="2">
@@ -19875,9 +19869,9 @@
       </c>
       <c r="Q507" s="2"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F508" s="3"/>
       <c r="G508" s="2">
@@ -19909,9 +19903,9 @@
       </c>
       <c r="Q508" s="2"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F509" s="3"/>
       <c r="G509" s="2">
@@ -19943,15 +19937,15 @@
       </c>
       <c r="Q509" s="2"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B510" t="s">
         <v>51</v>
       </c>
       <c r="C510" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D510">
         <v>11</v>
@@ -19993,9 +19987,9 @@
       <c r="R510" s="4"/>
       <c r="S510" s="2"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F511" s="3"/>
       <c r="G511" s="2">
@@ -20027,9 +20021,9 @@
       </c>
       <c r="Q511" s="2"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F512" s="3"/>
       <c r="G512" s="2">
@@ -20061,9 +20055,9 @@
       </c>
       <c r="Q512" s="2"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F513" s="3"/>
       <c r="G513" s="2">
@@ -20095,9 +20089,9 @@
       </c>
       <c r="Q513" s="2"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F514" s="3"/>
       <c r="G514" s="2">
@@ -20129,9 +20123,9 @@
       </c>
       <c r="Q514" s="2"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F515" s="3"/>
       <c r="G515" s="2">
@@ -20163,9 +20157,9 @@
       </c>
       <c r="Q515" s="2"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B516" t="s">
         <v>53</v>
@@ -20213,9 +20207,9 @@
       <c r="R516" s="4"/>
       <c r="S516" s="2"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F517" s="3"/>
       <c r="G517" s="2">
@@ -20247,9 +20241,9 @@
       </c>
       <c r="Q517" s="2"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F518" s="3"/>
       <c r="G518" s="2">
@@ -20281,9 +20275,9 @@
       </c>
       <c r="Q518" s="2"/>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F519" s="3"/>
       <c r="G519" s="2">
@@ -20315,9 +20309,9 @@
       </c>
       <c r="Q519" s="2"/>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F520" s="3"/>
       <c r="G520" s="2">
@@ -20349,9 +20343,9 @@
       </c>
       <c r="Q520" s="2"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F521" s="3"/>
       <c r="G521" s="2">
@@ -20383,15 +20377,15 @@
       </c>
       <c r="Q521" s="2"/>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B522" t="s">
         <v>55</v>
       </c>
       <c r="C522" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D522">
         <v>27</v>
@@ -20433,9 +20427,9 @@
       <c r="R522" s="4"/>
       <c r="S522" s="2"/>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F523" s="3"/>
       <c r="G523" s="2">
@@ -20467,9 +20461,9 @@
       </c>
       <c r="Q523" s="2"/>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F524" s="3"/>
       <c r="G524" s="2">
@@ -20501,9 +20495,9 @@
       </c>
       <c r="Q524" s="2"/>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F525" s="3"/>
       <c r="G525" s="2">
@@ -20535,9 +20529,9 @@
       </c>
       <c r="Q525" s="2"/>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F526" s="3"/>
       <c r="G526" s="2">
@@ -20569,9 +20563,9 @@
       </c>
       <c r="Q526" s="2"/>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F527" s="3"/>
       <c r="G527" s="2">
@@ -20603,15 +20597,15 @@
       </c>
       <c r="Q527" s="2"/>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B528" t="s">
         <v>57</v>
       </c>
       <c r="C528" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D528">
         <v>33</v>
@@ -20653,9 +20647,9 @@
       <c r="R528" s="4"/>
       <c r="S528" s="2"/>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F529" s="3"/>
       <c r="G529" s="2">
@@ -20687,9 +20681,9 @@
       </c>
       <c r="Q529" s="2"/>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F530" s="3"/>
       <c r="G530" s="2">
@@ -20721,9 +20715,9 @@
       </c>
       <c r="Q530" s="2"/>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F531" s="3"/>
       <c r="G531" s="2">
@@ -20755,9 +20749,9 @@
       </c>
       <c r="Q531" s="2"/>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F532" s="3"/>
       <c r="G532" s="2">
@@ -20789,15 +20783,15 @@
       </c>
       <c r="Q532" s="2"/>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B533" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C533" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D533">
         <v>37</v>
@@ -20839,9 +20833,9 @@
       <c r="R533" s="4"/>
       <c r="S533" s="2"/>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E534" s="1"/>
       <c r="F534" s="3"/>
@@ -20874,9 +20868,9 @@
       </c>
       <c r="Q534" s="2"/>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E535" s="1"/>
       <c r="F535" s="3"/>
@@ -20909,9 +20903,9 @@
       </c>
       <c r="Q535" s="2"/>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E536" s="1"/>
       <c r="F536" s="3"/>
@@ -20944,9 +20938,9 @@
       </c>
       <c r="Q536" s="2"/>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E537" s="1"/>
       <c r="F537" s="3"/>
@@ -20979,9 +20973,9 @@
       </c>
       <c r="Q537" s="2"/>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E538" s="1"/>
       <c r="F538" s="3"/>
@@ -21014,12 +21008,12 @@
       </c>
       <c r="Q538" s="2"/>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B539" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C539" t="s">
         <v>7</v>
@@ -21064,9 +21058,9 @@
       <c r="R539" s="4"/>
       <c r="S539" s="2"/>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E540" s="1"/>
       <c r="G540" s="2">
@@ -21098,9 +21092,9 @@
       </c>
       <c r="Q540" s="2"/>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E541" s="1"/>
       <c r="G541" s="2">
@@ -21132,9 +21126,9 @@
       </c>
       <c r="Q541" s="2"/>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E542" s="1"/>
       <c r="G542" s="2">
@@ -21166,9 +21160,9 @@
       </c>
       <c r="Q542" s="2"/>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E543" s="1"/>
       <c r="G543" s="2">
@@ -21200,9 +21194,9 @@
       </c>
       <c r="Q543" s="2"/>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E544" s="1"/>
       <c r="G544" s="2">
